--- a/latihan/Book1.xlsx
+++ b/latihan/Book1.xlsx
@@ -27,30 +27,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Nama</t>
+    <t>Percobaan</t>
   </si>
   <si>
-    <t>Kelas</t>
+    <t>Ini  kalimat contoh</t>
   </si>
   <si>
-    <t>Budi</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Ayu</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Yuda</t>
-  </si>
-  <si>
-    <t>s</t>
+    <t>Ini baris ke-2</t>
   </si>
 </sst>
 </file>
@@ -1203,13 +1188,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="A6:B7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="18.8571428571429" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1219,33 +1207,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="9:9">
-      <c r="I9" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
